--- a/htdocs/App/Controllers/Traspasos/8447DYJ.xlsx
+++ b/htdocs/App/Controllers/Traspasos/8447DYJ.xlsx
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>16-10-2017</t>
+    <t>07-11-2017</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Cristina</t>
+    <t>Silvia</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-10-16</t>
+    <t>2017-11-07</t>
   </si>
   <si>
     <t>x</t>
@@ -94,7 +94,7 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>ROLLANDI</t>
+    <t xml:space="preserve">VALENTIN </t>
   </si>
   <si>
     <t>No disponible</t>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>761</v>
+        <v>617084824</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
